--- a/Results/Greedy-k_Method_DeepLearning_Analysis.xlsx
+++ b/Results/Greedy-k_Method_DeepLearning_Analysis.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iman\Google Drive\4. BGSU\1.2 PhD_Courses\3. 7200_Machin Learning\Final_project\Generated_Images_after Aug2024\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ik\projects\DDPM_X-Ray\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825110F2-F050-4F6B-B1A5-C0B041707EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA534E2-C979-40F9-A5CB-014B6ABA1A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" firstSheet="1" activeTab="7" xr2:uid="{98AE7D4F-341E-44B4-8420-017FC5597488}"/>
+    <workbookView xWindow="29715" yWindow="915" windowWidth="21600" windowHeight="11235" tabRatio="822" firstSheet="2" activeTab="7" xr2:uid="{98AE7D4F-341E-44B4-8420-017FC5597488}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance-Greedy K-CNN" sheetId="1" r:id="rId1"/>
     <sheet name="Imbalance-Greedy K-CNN" sheetId="2" r:id="rId2"/>
-    <sheet name="Balanced-VGG-Epo5" sheetId="5" r:id="rId3"/>
-    <sheet name="Imbalanced-VGG-Epo5" sheetId="6" r:id="rId4"/>
-    <sheet name="Balanced-ResNet-Epo5" sheetId="7" r:id="rId5"/>
-    <sheet name="Imbalanced-ResNet-Epo5" sheetId="8" r:id="rId6"/>
+    <sheet name="Balanced-VGG" sheetId="5" r:id="rId3"/>
+    <sheet name="Imbalanced-VGG" sheetId="6" r:id="rId4"/>
+    <sheet name="Balanced-ResNet" sheetId="7" r:id="rId5"/>
+    <sheet name="Imbalanced-ResNet" sheetId="8" r:id="rId6"/>
     <sheet name="Balanced_Untrained_VGG" sheetId="3" r:id="rId7"/>
     <sheet name="Imbalanced_Untrained_VGG" sheetId="4" r:id="rId8"/>
   </sheets>
@@ -992,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1149,46 +1149,264 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,167 +1416,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,144 +1423,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,30 +1771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2190,54 +2109,54 @@
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="60" t="s">
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="60" t="s">
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="26" t="s">
@@ -2309,7 +2228,7 @@
         <f t="shared" si="0"/>
         <v>0.89599999999999991</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="98">
         <f t="shared" si="0"/>
         <v>0.92599999999999993</v>
       </c>
@@ -2341,7 +2260,7 @@
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="N15" s="138">
+      <c r="N15" s="98">
         <f t="shared" si="0"/>
         <v>0.93200000000000005</v>
       </c>
@@ -2378,7 +2297,7 @@
         <f t="shared" si="1"/>
         <v>3.3615472627943253E-2</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="101">
         <f t="shared" si="1"/>
         <v>1.1401754250991356E-2</v>
       </c>
@@ -2410,7 +2329,7 @@
         <f t="shared" si="1"/>
         <v>9.4868329805051235E-2</v>
       </c>
-      <c r="N16" s="141">
+      <c r="N16" s="101">
         <f t="shared" si="1"/>
         <v>2.0493901531919167E-2</v>
       </c>
@@ -2443,11 +2362,11 @@
         <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="100">
         <f t="shared" si="2"/>
         <v>0.86</v>
       </c>
-      <c r="F17" s="142">
+      <c r="F17" s="102">
         <f t="shared" si="2"/>
         <v>0.91</v>
       </c>
@@ -2479,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
-      <c r="N17" s="142">
+      <c r="N17" s="102">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
@@ -2491,7 +2410,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="Q17" s="140">
+      <c r="Q17" s="100">
         <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
@@ -2516,7 +2435,7 @@
         <f t="shared" si="3"/>
         <v>0.93</v>
       </c>
-      <c r="F18" s="143">
+      <c r="F18" s="103">
         <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
@@ -2548,7 +2467,7 @@
         <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
-      <c r="N18" s="143">
+      <c r="N18" s="103">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
@@ -2753,43 +2672,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="60" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="60" t="s">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="140"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -3225,43 +3144,43 @@
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="60" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="60" t="s">
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="60" t="s">
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="62"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -3697,43 +3616,43 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="60" t="s">
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="60" t="s">
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="60" t="s">
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="62"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
@@ -4227,12 +4146,12 @@
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
       <c r="M39" s="56"/>
@@ -4247,12 +4166,12 @@
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
       <c r="M40" s="56"/>
@@ -4262,38 +4181,38 @@
       <c r="Q40" s="56"/>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="60" t="s">
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="60" t="s">
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="60" t="s">
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="62"/>
+      <c r="O42" s="139"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="140"/>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
@@ -4397,7 +4316,7 @@
         <f t="shared" si="6"/>
         <v>0.94833333333333325</v>
       </c>
-      <c r="N44" s="135">
+      <c r="N44" s="95">
         <f t="shared" si="6"/>
         <v>0.96799999999999997</v>
       </c>
@@ -4409,7 +4328,7 @@
         <f t="shared" si="6"/>
         <v>0.96799999999999997</v>
       </c>
-      <c r="Q44" s="110">
+      <c r="Q44" s="81">
         <f t="shared" si="6"/>
         <v>0.96799999999999997</v>
       </c>
@@ -4434,7 +4353,7 @@
         <f t="shared" si="7"/>
         <v>1.3557637102737467E-2</v>
       </c>
-      <c r="F45" s="134">
+      <c r="F45" s="94">
         <f t="shared" si="7"/>
         <v>1.1872336794093257E-2</v>
       </c>
@@ -4450,7 +4369,7 @@
         <f t="shared" si="7"/>
         <v>1.0997835284835869E-2</v>
       </c>
-      <c r="J45" s="124">
+      <c r="J45" s="87">
         <f t="shared" si="7"/>
         <v>7.5277265270908165E-3</v>
       </c>
@@ -4466,7 +4385,7 @@
         <f t="shared" si="7"/>
         <v>7.5277265270908165E-3</v>
       </c>
-      <c r="N45" s="134">
+      <c r="N45" s="94">
         <f t="shared" si="7"/>
         <v>1.2071217242444358E-2</v>
       </c>
@@ -4487,7 +4406,7 @@
       <c r="A46" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="114">
+      <c r="B46" s="85">
         <f>MIN(B5:B9,B17:B21,B29:B33)</f>
         <v>0.92</v>
       </c>
@@ -4519,7 +4438,7 @@
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="J46" s="114">
+      <c r="J46" s="85">
         <f t="shared" si="8"/>
         <v>0.94</v>
       </c>
@@ -4535,7 +4454,7 @@
         <f t="shared" si="8"/>
         <v>0.94</v>
       </c>
-      <c r="N46" s="138">
+      <c r="N46" s="98">
         <f t="shared" si="8"/>
         <v>0.94</v>
       </c>
@@ -4556,90 +4475,88 @@
       <c r="A47" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="111">
+      <c r="B47" s="82">
         <f>MAX(B5:B9,B17:B21,B29:B33)</f>
         <v>0.97</v>
       </c>
-      <c r="C47" s="112">
+      <c r="C47" s="83">
         <f t="shared" ref="C47:Q47" si="9">MAX(C5:C9,C17:C21,C29:C33)</f>
         <v>0.97</v>
       </c>
-      <c r="D47" s="112">
+      <c r="D47" s="83">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="E47" s="113">
+      <c r="E47" s="84">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="F47" s="112">
+      <c r="F47" s="83">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="83">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="83">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="I47" s="112">
+      <c r="I47" s="83">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
-      <c r="J47" s="111">
+      <c r="J47" s="82">
         <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
-      <c r="K47" s="112">
+      <c r="K47" s="83">
         <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
-      <c r="L47" s="112">
+      <c r="L47" s="83">
         <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
-      <c r="M47" s="113">
+      <c r="M47" s="84">
         <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
-      <c r="N47" s="139">
+      <c r="N47" s="99">
         <f t="shared" si="9"/>
         <v>0.99</v>
       </c>
-      <c r="O47" s="112">
+      <c r="O47" s="83">
         <f t="shared" si="9"/>
         <v>0.99</v>
       </c>
-      <c r="P47" s="112">
+      <c r="P47" s="83">
         <f t="shared" si="9"/>
         <v>0.99</v>
       </c>
-      <c r="Q47" s="113">
+      <c r="Q47" s="84">
         <f t="shared" si="9"/>
         <v>0.99</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="116"/>
-    </row>
-    <row r="50" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4757,6 +4674,17 @@
     <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="J42:M42"/>
@@ -4768,17 +4696,6 @@
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="G41:J41"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4796,30 +4713,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5278,54 +5195,54 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="60" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="60" t="s">
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="60" t="s">
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="26" t="s">
@@ -5381,7 +5298,7 @@
       <c r="A20" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="85">
         <f>AVERAGE(B3:B7)</f>
         <v>0.94800000000000006</v>
       </c>
@@ -5397,7 +5314,7 @@
         <f t="shared" si="2"/>
         <v>0.95399999999999996</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="98">
         <f t="shared" si="2"/>
         <v>0.95799999999999996</v>
       </c>
@@ -5450,67 +5367,67 @@
       <c r="A21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="147">
+      <c r="B21" s="107">
         <f>_xlfn.STDEV.S(B3:B7)</f>
         <v>1.0954451150103333E-2</v>
       </c>
-      <c r="C21" s="148">
+      <c r="C21" s="56">
         <f t="shared" ref="C21:Q21" si="3">_xlfn.STDEV.S(C3:C7)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D21" s="148">
+      <c r="D21" s="56">
         <f t="shared" si="3"/>
         <v>5.4772255750516656E-3</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="108">
         <f t="shared" si="3"/>
         <v>5.4772255750516656E-3</v>
       </c>
-      <c r="F21" s="150">
+      <c r="F21" s="109">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="G21" s="148">
+      <c r="G21" s="56">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="H21" s="148">
+      <c r="H21" s="56">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="I21" s="149">
+      <c r="I21" s="108">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="J21" s="148">
+      <c r="J21" s="56">
         <f t="shared" si="3"/>
         <v>3.0331501776206183E-2</v>
       </c>
-      <c r="K21" s="148">
+      <c r="K21" s="56">
         <f t="shared" si="3"/>
         <v>5.8566201857385425E-2</v>
       </c>
-      <c r="L21" s="148">
+      <c r="L21" s="56">
         <f t="shared" si="3"/>
         <v>2.880972058177585E-2</v>
       </c>
-      <c r="M21" s="149">
+      <c r="M21" s="108">
         <f t="shared" si="3"/>
         <v>2.8809720581775892E-2</v>
       </c>
-      <c r="N21" s="150">
+      <c r="N21" s="109">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="O21" s="148">
+      <c r="O21" s="56">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="P21" s="148">
+      <c r="P21" s="56">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="Q21" s="149">
+      <c r="Q21" s="108">
         <f t="shared" si="3"/>
         <v>8.3666002653407633E-3</v>
       </c>
@@ -5535,7 +5452,7 @@
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="F22" s="143">
+      <c r="F22" s="103">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
@@ -5588,67 +5505,67 @@
       <c r="A23" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="144">
+      <c r="B23" s="104">
         <f>MAX(B3:B7)</f>
         <v>0.96</v>
       </c>
-      <c r="C23" s="145">
+      <c r="C23" s="105">
         <f t="shared" ref="C23:Q23" si="5">MAX(C3:C7)</f>
         <v>0.96</v>
       </c>
-      <c r="D23" s="145">
+      <c r="D23" s="105">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="E23" s="146">
+      <c r="E23" s="106">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="F23" s="151">
+      <c r="F23" s="110">
         <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
-      <c r="G23" s="145">
+      <c r="G23" s="105">
         <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
-      <c r="H23" s="145">
+      <c r="H23" s="105">
         <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
-      <c r="I23" s="146">
+      <c r="I23" s="106">
         <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
-      <c r="J23" s="145">
+      <c r="J23" s="105">
         <f t="shared" si="5"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="K23" s="145">
+      <c r="K23" s="105">
         <f t="shared" si="5"/>
         <v>0.48</v>
       </c>
-      <c r="L23" s="145">
+      <c r="L23" s="105">
         <f t="shared" si="5"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="M23" s="146">
+      <c r="M23" s="106">
         <f t="shared" si="5"/>
         <v>0.77</v>
       </c>
-      <c r="N23" s="145">
+      <c r="N23" s="105">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="O23" s="145">
+      <c r="O23" s="105">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="P23" s="145">
+      <c r="P23" s="105">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="Q23" s="146">
+      <c r="Q23" s="106">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
@@ -5682,55 +5599,46 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="60" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -5783,31 +5691,31 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102">
-        <v>0.95</v>
-      </c>
-      <c r="C4" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="100">
+      <c r="B4" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="71">
         <v>0.95</v>
       </c>
       <c r="F4" s="40">
         <v>0.95</v>
       </c>
-      <c r="G4" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="H4" s="100">
-        <v>0.96</v>
-      </c>
-      <c r="I4" s="101">
+      <c r="G4" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="71">
+        <v>0.96</v>
+      </c>
+      <c r="I4" s="72">
         <v>0.95</v>
       </c>
       <c r="J4" s="40">
@@ -5822,7 +5730,7 @@
       <c r="M4" s="42">
         <v>0.96</v>
       </c>
-      <c r="N4" s="102">
+      <c r="N4" s="73">
         <v>0.96</v>
       </c>
       <c r="O4" s="41">
@@ -5836,161 +5744,161 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="95">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="D5" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="E5" s="86">
-        <v>0.96</v>
-      </c>
-      <c r="F5" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="H5" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="J5" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="K5" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="L5" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="M5" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="N5" s="95">
+      <c r="B5" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="H5" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="L5" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="M5" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="N5" s="66">
         <v>0.94499999999999995</v>
       </c>
-      <c r="O5" s="93">
-        <v>0.94</v>
-      </c>
-      <c r="P5" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="Q5" s="78">
+      <c r="O5" s="65">
+        <v>0.94</v>
+      </c>
+      <c r="P5" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="Q5" s="63">
         <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="66">
         <v>0.92</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="59">
         <v>0.92</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="59">
         <v>0.93</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="7">
         <v>0.93</v>
       </c>
-      <c r="F6" s="95">
-        <v>0.95</v>
-      </c>
-      <c r="G6" s="82">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="J6" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="K6" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="L6" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="N6" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="P6" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="Q6" s="78">
+      <c r="F6" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="K6" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="L6" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="M6" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="O6" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="P6" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="Q6" s="63">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="95">
-        <v>0.95</v>
-      </c>
-      <c r="C7" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="E7" s="86">
-        <v>0.96</v>
-      </c>
-      <c r="F7" s="95">
-        <v>0.94</v>
-      </c>
-      <c r="G7" s="94">
+      <c r="B7" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F7" s="66">
+        <v>0.94</v>
+      </c>
+      <c r="G7" s="59">
         <v>0.93</v>
       </c>
-      <c r="H7" s="93">
-        <v>0.94</v>
-      </c>
-      <c r="I7" s="86">
-        <v>0.94</v>
-      </c>
-      <c r="J7" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="M7" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="N7" s="85">
-        <v>0.95</v>
-      </c>
-      <c r="O7" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="92">
-        <v>0.95</v>
-      </c>
-      <c r="Q7" s="78">
+      <c r="H7" s="65">
+        <v>0.94</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="L7" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="O7" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="P7" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="Q7" s="63">
         <v>0.95</v>
       </c>
     </row>
@@ -5998,124 +5906,124 @@
       <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="98">
-        <v>0.96</v>
-      </c>
-      <c r="C8" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="D8" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="E8" s="89">
-        <v>0.96</v>
-      </c>
-      <c r="F8" s="98">
-        <v>0.95</v>
-      </c>
-      <c r="G8" s="104">
-        <v>0.95</v>
-      </c>
-      <c r="H8" s="88">
-        <v>0.95</v>
-      </c>
-      <c r="I8" s="97">
-        <v>0.95</v>
-      </c>
-      <c r="J8" s="98">
+      <c r="B8" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="D8" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="F8" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="I8" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="J8" s="69">
         <v>0.94499999999999995</v>
       </c>
-      <c r="K8" s="99">
-        <v>0.94</v>
-      </c>
-      <c r="L8" s="96">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="97">
-        <v>0.95</v>
-      </c>
-      <c r="N8" s="87">
-        <v>0.95</v>
-      </c>
-      <c r="O8" s="96">
-        <v>0.95</v>
-      </c>
-      <c r="P8" s="96">
-        <v>0.95</v>
-      </c>
-      <c r="Q8" s="97">
+      <c r="K8" s="70">
+        <v>0.94</v>
+      </c>
+      <c r="L8" s="67">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O8" s="67">
+        <v>0.95</v>
+      </c>
+      <c r="P8" s="67">
+        <v>0.95</v>
+      </c>
+      <c r="Q8" s="68">
         <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="63" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="60" t="s">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="60" t="s">
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -6168,668 +6076,668 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="73">
         <v>0.96199999999999997</v>
       </c>
-      <c r="C13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="D13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="E13" s="101">
-        <v>0.96</v>
-      </c>
-      <c r="F13" s="102">
-        <v>0.96</v>
-      </c>
-      <c r="G13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="H13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="I13" s="101">
-        <v>0.96</v>
-      </c>
-      <c r="J13" s="102">
-        <v>0.96</v>
-      </c>
-      <c r="K13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="L13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="M13" s="101">
-        <v>0.96</v>
-      </c>
-      <c r="N13" s="102">
-        <v>0.96</v>
-      </c>
-      <c r="O13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="P13" s="103">
-        <v>0.96</v>
-      </c>
-      <c r="Q13" s="101">
+      <c r="C13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="D13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="E13" s="72">
+        <v>0.96</v>
+      </c>
+      <c r="F13" s="73">
+        <v>0.96</v>
+      </c>
+      <c r="G13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="H13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="I13" s="72">
+        <v>0.96</v>
+      </c>
+      <c r="J13" s="73">
+        <v>0.96</v>
+      </c>
+      <c r="K13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0.96</v>
+      </c>
+      <c r="N13" s="73">
+        <v>0.96</v>
+      </c>
+      <c r="O13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="P13" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="Q13" s="72">
         <v>0.96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="66">
         <v>0.96699999999999997</v>
       </c>
-      <c r="C14" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="D14" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="E14" s="78">
-        <v>0.97</v>
-      </c>
-      <c r="F14" s="95">
+      <c r="C14" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="E14" s="63">
+        <v>0.97</v>
+      </c>
+      <c r="F14" s="66">
         <v>0.95499999999999996</v>
       </c>
-      <c r="G14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="H14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="I14" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="J14" s="95">
+      <c r="G14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="J14" s="66">
         <v>0.95699999999999996</v>
       </c>
-      <c r="K14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="L14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="M14" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="N14" s="95">
+      <c r="K14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M14" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="N14" s="66">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="P14" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q14" s="78">
+      <c r="O14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q14" s="63">
         <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="66">
         <v>0.93</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="59">
         <v>0.93</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="59">
         <v>0.93</v>
       </c>
-      <c r="E15" s="78">
-        <v>0.94</v>
-      </c>
-      <c r="F15" s="95">
-        <v>0.96</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="H15" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="I15" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="J15" s="95">
+      <c r="E15" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I15" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="J15" s="66">
         <v>0.95699999999999996</v>
       </c>
-      <c r="K15" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="L15" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="M15" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="N15" s="95">
+      <c r="K15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M15" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="N15" s="66">
         <v>0.96499999999999997</v>
       </c>
-      <c r="O15" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="P15" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="Q15" s="78">
+      <c r="O15" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="P15" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="Q15" s="63">
         <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="66">
         <v>0.95699999999999996</v>
       </c>
-      <c r="C16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="D16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="E16" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="F16" s="95">
-        <v>0.95</v>
-      </c>
-      <c r="G16" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="H16" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="I16" s="78">
-        <v>0.95</v>
-      </c>
-      <c r="J16" s="95">
-        <v>0.96</v>
-      </c>
-      <c r="K16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="L16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="M16" s="78">
-        <v>0.96</v>
-      </c>
-      <c r="N16" s="95">
+      <c r="C16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H16" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I16" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M16" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="N16" s="66">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="P16" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q16" s="78">
+      <c r="O16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q16" s="63">
         <v>0.96</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="98">
-        <v>0.97</v>
-      </c>
-      <c r="C17" s="104">
-        <v>0.97</v>
-      </c>
-      <c r="D17" s="104">
-        <v>0.97</v>
-      </c>
-      <c r="E17" s="97">
-        <v>0.97</v>
-      </c>
-      <c r="F17" s="98">
-        <v>0.96</v>
-      </c>
-      <c r="G17" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="H17" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="I17" s="97">
-        <v>0.96</v>
-      </c>
-      <c r="J17" s="98">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="104">
-        <v>0.95</v>
-      </c>
-      <c r="L17" s="104">
-        <v>0.95</v>
-      </c>
-      <c r="M17" s="97">
-        <v>0.95</v>
-      </c>
-      <c r="N17" s="98">
+      <c r="B17" s="69">
+        <v>0.97</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0.97</v>
+      </c>
+      <c r="D17" s="75">
+        <v>0.97</v>
+      </c>
+      <c r="E17" s="68">
+        <v>0.97</v>
+      </c>
+      <c r="F17" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="G17" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="H17" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="I17" s="68">
+        <v>0.96</v>
+      </c>
+      <c r="J17" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="M17" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="N17" s="69">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O17" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="P17" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="Q17" s="97">
+      <c r="O17" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="P17" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="Q17" s="68">
         <v>0.96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="63" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="60" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="60" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="60" t="s">
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="84" t="s">
+      <c r="M21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="83" t="s">
+      <c r="N21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="81" t="s">
+      <c r="O21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="81" t="s">
+      <c r="P21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="84" t="s">
+      <c r="Q21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="D22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="E22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="F22" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="G22" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="H22" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="I22" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="J22" s="94">
+      <c r="C22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="F22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J22" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="K22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="L22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="M22" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="N22" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="O22" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="P22" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q22" s="78">
+      <c r="K22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="L22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="M22" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="N22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q22" s="63">
         <v>0.96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C23" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="D23" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="E23" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="F23" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="G23" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="H23" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="I23" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="J23" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="K23" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="L23" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="M23" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="N23" s="94">
+      <c r="C23" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="G23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N23" s="59">
         <v>0.95499999999999996</v>
       </c>
-      <c r="O23" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="P23" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q23" s="78">
+      <c r="O23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q23" s="63">
         <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="94">
+      <c r="B24" s="59">
         <v>0.93</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="59">
         <v>0.93</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="59">
         <v>0.93</v>
       </c>
-      <c r="E24" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="F24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="G24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="H24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="I24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="J24" s="94">
+      <c r="E24" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J24" s="59">
         <v>0.96699999999999997</v>
       </c>
-      <c r="K24" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="L24" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="M24" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="N24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="O24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="P24" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q24" s="78">
+      <c r="K24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="L24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="N24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q24" s="63">
         <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="C25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="D25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="E25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="F25" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="G25" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="H25" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="I25" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="J25" s="94">
+      <c r="B25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G25" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J25" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="K25" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="L25" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="M25" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="N25" s="94">
+      <c r="K25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="L25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="M25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="N25" s="59">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="P25" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="Q25" s="78">
+      <c r="O25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q25" s="63">
         <v>0.96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="C26" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="D26" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="E26" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="F26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="H26" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="I26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="J26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="K26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="L26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="M26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="N26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="O26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="P26" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="Q26" s="78">
+      <c r="B26" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="F26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="63">
         <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -6839,18 +6747,18 @@
       <c r="Q31" s="56"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
       <c r="K32" s="56"/>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
@@ -6860,101 +6768,101 @@
       <c r="Q32" s="56"/>
     </row>
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="59" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="60" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="60" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="60" t="s">
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="60" t="s">
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="62"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="140"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="83" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="I35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="84" t="s">
+      <c r="M35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="83" t="s">
+      <c r="N35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="81" t="s">
+      <c r="O35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="81" t="s">
+      <c r="P35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="84" t="s">
+      <c r="Q35" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7010,7 +6918,7 @@
         <f t="shared" si="0"/>
         <v>0.95733333333333326</v>
       </c>
-      <c r="N36" s="135">
+      <c r="N36" s="95">
         <f t="shared" si="0"/>
         <v>0.95553333333333323</v>
       </c>
@@ -7079,7 +6987,7 @@
         <f t="shared" si="1"/>
         <v>7.988086367179811E-3</v>
       </c>
-      <c r="N37" s="134">
+      <c r="N37" s="94">
         <f t="shared" si="1"/>
         <v>5.4230548410949941E-3</v>
       </c>
@@ -7100,7 +7008,7 @@
       <c r="A38" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="114">
+      <c r="B38" s="85">
         <f>MIN(B4:B8,B13:B17,B22:B26)</f>
         <v>0.92</v>
       </c>
@@ -7148,7 +7056,7 @@
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="N38" s="138">
+      <c r="N38" s="98">
         <f t="shared" si="2"/>
         <v>0.94499999999999995</v>
       </c>
@@ -7169,85 +7077,73 @@
       <c r="A39" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="111">
+      <c r="B39" s="82">
         <f>MAX(B4:B8,B13:B17,B22:B26)</f>
         <v>0.97</v>
       </c>
-      <c r="C39" s="112">
+      <c r="C39" s="83">
         <f t="shared" ref="C39:Q39" si="3">MAX(C4:C8,C13:C17,C22:C26)</f>
         <v>0.97</v>
       </c>
-      <c r="D39" s="112">
+      <c r="D39" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="84">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="F39" s="112">
+      <c r="F39" s="83">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="83">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="H39" s="112">
+      <c r="H39" s="83">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="I39" s="113">
+      <c r="I39" s="84">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="J39" s="112">
+      <c r="J39" s="83">
         <f t="shared" si="3"/>
         <v>0.96699999999999997</v>
       </c>
-      <c r="K39" s="112">
+      <c r="K39" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="L39" s="112">
+      <c r="L39" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="M39" s="113">
+      <c r="M39" s="84">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="N39" s="139">
+      <c r="N39" s="99">
         <f t="shared" si="3"/>
         <v>0.96499999999999997</v>
       </c>
-      <c r="O39" s="112">
+      <c r="O39" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="P39" s="112">
+      <c r="P39" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="Q39" s="113">
+      <c r="Q39" s="84">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
@@ -7258,6 +7154,18 @@
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7277,452 +7185,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="65"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="72" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="C3" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="D3" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="E3" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="F3" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="G3" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="H3" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="I3" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J3" s="76">
+      <c r="B3" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C3" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F3" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="G3" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="J3" s="61">
         <v>0.5</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="61">
         <v>0.35</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="61">
         <v>0.5</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="61">
         <v>0.73</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="59">
         <v>0.9</v>
       </c>
-      <c r="O3" s="71">
+      <c r="O3" s="59">
         <v>0.9</v>
       </c>
-      <c r="P3" s="71">
+      <c r="P3" s="59">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="71">
+      <c r="Q3" s="59">
         <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="C4" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="D4" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="E4" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="F4" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="G4" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="H4" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="I4" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J4" s="76">
+      <c r="B4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="61">
         <v>0.5</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="61">
         <v>0.35</v>
       </c>
-      <c r="L4" s="76">
+      <c r="L4" s="61">
         <v>0.5</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="61">
         <v>0.7</v>
       </c>
-      <c r="N4" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="O4" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="P4" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="Q4" s="71">
+      <c r="N4" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="O4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q4" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="G5" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="H5" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="I5" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="J5" s="76">
+      <c r="B5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J5" s="61">
         <v>0.5</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="61">
         <v>0.34</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="61">
         <v>0.5</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="61">
         <v>0.75</v>
       </c>
-      <c r="N5" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="O5" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="P5" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="Q5" s="71">
+      <c r="N5" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="P5" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="Q5" s="59">
         <v>0.94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="D6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="E6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="G6" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="J6" s="76">
+      <c r="B6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J6" s="61">
         <v>0.5</v>
       </c>
-      <c r="K6" s="76">
+      <c r="K6" s="61">
         <v>0.34</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="61">
         <v>0.5</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="61">
         <v>0.75</v>
       </c>
-      <c r="N6" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="O6" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="P6" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="Q6" s="71">
+      <c r="N6" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q6" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="C7" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="E7" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="G7" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="H7" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="I7" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J7" s="76">
+      <c r="B7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J7" s="61">
         <v>0.52</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="61">
         <v>0.38</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="61">
         <v>0.52</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="61">
         <v>0.74</v>
       </c>
-      <c r="N7" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="O7" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="Q7" s="71">
+      <c r="N7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q7" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="60" t="s">
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="60" t="s">
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="60" t="s">
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="140"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="26" t="s">
@@ -7737,28 +7604,28 @@
       <c r="I18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="M18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="66" t="s">
+      <c r="O18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="68" t="s">
+      <c r="Q18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7766,67 +7633,67 @@
       <c r="A19" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="170">
+      <c r="B19" s="129">
         <f>AVERAGE(B3:B7)</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="C19" s="171">
+      <c r="C19" s="130">
         <f t="shared" ref="C19:Q19" si="0">AVERAGE(C3:C7)</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="D19" s="171">
+      <c r="D19" s="130">
         <f t="shared" si="0"/>
         <v>0.95799999999999996</v>
       </c>
-      <c r="E19" s="172">
+      <c r="E19" s="131">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="F19" s="173">
+      <c r="F19" s="132">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="G19" s="174">
+      <c r="G19" s="133">
         <f t="shared" si="0"/>
         <v>0.95799999999999985</v>
       </c>
-      <c r="H19" s="175">
+      <c r="H19" s="134">
         <f t="shared" si="0"/>
         <v>0.95799999999999985</v>
       </c>
-      <c r="I19" s="176">
+      <c r="I19" s="135">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="136">
         <f t="shared" si="0"/>
         <v>0.504</v>
       </c>
-      <c r="K19" s="171">
+      <c r="K19" s="130">
         <f t="shared" si="0"/>
         <v>0.35200000000000004</v>
       </c>
-      <c r="L19" s="171">
+      <c r="L19" s="130">
         <f t="shared" si="0"/>
         <v>0.504</v>
       </c>
-      <c r="M19" s="178">
+      <c r="M19" s="137">
         <f t="shared" si="0"/>
         <v>0.73399999999999999</v>
       </c>
-      <c r="N19" s="177">
+      <c r="N19" s="136">
         <f t="shared" si="0"/>
         <v>0.93200000000000005</v>
       </c>
-      <c r="O19" s="171">
+      <c r="O19" s="130">
         <f t="shared" si="0"/>
         <v>0.93800000000000006</v>
       </c>
-      <c r="P19" s="171">
+      <c r="P19" s="130">
         <f t="shared" si="0"/>
         <v>0.93800000000000006</v>
       </c>
-      <c r="Q19" s="178">
+      <c r="Q19" s="137">
         <f t="shared" si="0"/>
         <v>0.94000000000000006</v>
       </c>
@@ -7835,67 +7702,67 @@
       <c r="A20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="164">
+      <c r="B20" s="123">
         <f>_xlfn.STDEV.S(B3:B7)</f>
         <v>4.4721359549995832E-3</v>
       </c>
-      <c r="C20" s="165">
+      <c r="C20" s="124">
         <f t="shared" ref="C20:Q20" si="1">_xlfn.STDEV.S(C3:C7)</f>
         <v>4.4721359549995832E-3</v>
       </c>
-      <c r="D20" s="165">
+      <c r="D20" s="124">
         <f t="shared" si="1"/>
         <v>4.4721359549995832E-3</v>
       </c>
-      <c r="E20" s="166">
+      <c r="E20" s="125">
         <f t="shared" si="1"/>
         <v>7.0710678118654814E-3</v>
       </c>
-      <c r="F20" s="167">
+      <c r="F20" s="126">
         <f t="shared" si="1"/>
         <v>1.2247448713915901E-2</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G20" s="124">
         <f t="shared" si="1"/>
         <v>1.3038404810405311E-2</v>
       </c>
-      <c r="H20" s="165">
+      <c r="H20" s="124">
         <f t="shared" si="1"/>
         <v>1.3038404810405311E-2</v>
       </c>
-      <c r="I20" s="168">
+      <c r="I20" s="127">
         <f t="shared" si="1"/>
         <v>1.2247448713915901E-2</v>
       </c>
-      <c r="J20" s="169">
+      <c r="J20" s="128">
         <f t="shared" si="1"/>
         <v>8.9442719099991682E-3</v>
       </c>
-      <c r="K20" s="165">
+      <c r="K20" s="124">
         <f t="shared" si="1"/>
         <v>1.6431676725154977E-2</v>
       </c>
-      <c r="L20" s="165">
+      <c r="L20" s="124">
         <f t="shared" si="1"/>
         <v>8.9442719099991682E-3</v>
       </c>
-      <c r="M20" s="168">
+      <c r="M20" s="127">
         <f t="shared" si="1"/>
         <v>2.073644135332774E-2</v>
       </c>
-      <c r="N20" s="169">
+      <c r="N20" s="128">
         <f t="shared" si="1"/>
         <v>1.7888543819998284E-2</v>
       </c>
-      <c r="O20" s="165">
+      <c r="O20" s="124">
         <f t="shared" si="1"/>
         <v>2.1679483388678773E-2</v>
       </c>
-      <c r="P20" s="165">
+      <c r="P20" s="124">
         <f t="shared" si="1"/>
         <v>2.1679483388678773E-2</v>
       </c>
-      <c r="Q20" s="168">
+      <c r="Q20" s="127">
         <f t="shared" si="1"/>
         <v>1.7320508075688738E-2</v>
       </c>
@@ -7904,67 +7771,67 @@
       <c r="A21" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="158">
+      <c r="B21" s="117">
         <f>MIN(B3:B7)</f>
         <v>0.95</v>
       </c>
-      <c r="C21" s="159">
+      <c r="C21" s="118">
         <f t="shared" ref="C21:Q21" si="2">MIN(C3:C7)</f>
         <v>0.95</v>
       </c>
-      <c r="D21" s="159">
+      <c r="D21" s="118">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="E21" s="160">
+      <c r="E21" s="119">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="F21" s="161">
+      <c r="F21" s="120">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="G21" s="159">
+      <c r="G21" s="118">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="H21" s="159">
+      <c r="H21" s="118">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="I21" s="162">
+      <c r="I21" s="121">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="J21" s="163">
+      <c r="J21" s="122">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K21" s="159">
+      <c r="K21" s="118">
         <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
-      <c r="L21" s="159">
+      <c r="L21" s="118">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="M21" s="162">
+      <c r="M21" s="121">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N21" s="163">
+      <c r="N21" s="122">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="O21" s="159">
+      <c r="O21" s="118">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="P21" s="159">
+      <c r="P21" s="118">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="Q21" s="162">
+      <c r="Q21" s="121">
         <f t="shared" si="2"/>
         <v>0.91</v>
       </c>
@@ -7973,84 +7840,84 @@
       <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="152">
+      <c r="B22" s="111">
         <f>MAX(B3:B7)</f>
         <v>0.96</v>
       </c>
-      <c r="C22" s="153">
+      <c r="C22" s="112">
         <f t="shared" ref="C22:Q22" si="3">MAX(C3:C7)</f>
         <v>0.96</v>
       </c>
-      <c r="D22" s="153">
+      <c r="D22" s="112">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="E22" s="154">
+      <c r="E22" s="113">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="F22" s="152">
+      <c r="F22" s="111">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="G22" s="155">
+      <c r="G22" s="114">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="H22" s="153">
+      <c r="H22" s="112">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="I22" s="156">
+      <c r="I22" s="115">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="J22" s="157">
+      <c r="J22" s="116">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="K22" s="153">
+      <c r="K22" s="112">
         <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
-      <c r="L22" s="153">
+      <c r="L22" s="112">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="M22" s="156">
+      <c r="M22" s="115">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="N22" s="157">
+      <c r="N22" s="116">
         <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
-      <c r="O22" s="153">
+      <c r="O22" s="112">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="P22" s="153">
+      <c r="P22" s="112">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="Q22" s="156">
+      <c r="Q22" s="115">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8058,7 +7925,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956AD19A-5CEE-475B-A33B-A996CF4EFB29}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:Q38"/>
@@ -8067,1154 +7934,1145 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="115"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="60" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="117" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="118" t="s">
+      <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="117" t="s">
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="117" t="s">
+      <c r="P3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="119" t="s">
+      <c r="Q3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="F4" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G4" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H4" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I4" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M4" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N4" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O4" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P4" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q4" s="122">
+      <c r="B4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M4" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P4" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q4" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="O5" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="P5" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="Q5" s="122">
+      <c r="B5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="P5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q5" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E6" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G6" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H6" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I6" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="P6" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="Q6" s="122">
+      <c r="B6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q6" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C7" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E7" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F7" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G7" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H7" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I7" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="O7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="Q7" s="122">
+      <c r="B7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P7" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q7" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="C8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="D8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="E8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="F8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J8" s="122">
+      <c r="B8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J8" s="59">
         <v>0.94499999999999995</v>
       </c>
-      <c r="K8" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="L8" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N8" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="O8" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="P8" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="Q8" s="122">
+      <c r="K8" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N8" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O8" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P8" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q8" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="63" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="116"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="60" t="s">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="60" t="s">
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="117" t="s">
+      <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="118" t="s">
+      <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="117" t="s">
+      <c r="O12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="117" t="s">
+      <c r="P12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="119" t="s">
+      <c r="Q12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="E13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="F13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M13" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N13" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O13" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P13" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q13" s="122">
+      <c r="B13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M13" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N13" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O13" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P13" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q13" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="E14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="F14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I14" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="K14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="L14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="M14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="N14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P14" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q14" s="122">
+      <c r="B14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="K14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="N14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P14" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q14" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="C15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="G15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="H15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="I15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="J15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="K15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="L15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="M15" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="N15" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="O15" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="P15" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="Q15" s="122">
+      <c r="B15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="K15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M15" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="N15" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="O15" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="P15" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="Q15" s="59">
         <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="C16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F16" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G16" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H16" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I16" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="K16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="L16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="M16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="N16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P16" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q16" s="122">
+      <c r="B16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H16" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I16" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="N16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P16" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q16" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="E17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="F17" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="G17" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H17" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="I17" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="J17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M17" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N17" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O17" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P17" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q17" s="122">
+      <c r="B17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="G17" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H17" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M17" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N17" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O17" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P17" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q17" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="63" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="60" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="60" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="60" t="s">
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="118" t="s">
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="117" t="s">
+      <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="118" t="s">
+      <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="117" t="s">
+      <c r="K21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="117" t="s">
+      <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="119" t="s">
+      <c r="M21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="118" t="s">
+      <c r="N21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="117" t="s">
+      <c r="O21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="117" t="s">
+      <c r="P21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="119" t="s">
+      <c r="Q21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F22" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G22" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H22" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I22" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="K22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="L22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="M22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="N22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P22" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q22" s="122">
+      <c r="B22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="K22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="L22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="M22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="N22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P22" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q22" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="C23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G23" s="122">
-        <v>0.94</v>
-      </c>
-      <c r="H23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O23" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="P23" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q23" s="122">
+      <c r="B23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O23" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P23" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q23" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="C24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="D24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="E24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="F24" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="H24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="I24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="J24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="K24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="L24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="M24" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="N24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P24" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q24" s="122">
+      <c r="B24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="C24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="K24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="L24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="N24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P24" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q24" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="C25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F25" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G25" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H25" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I25" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J25" s="122">
+      <c r="B25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="C25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G25" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J25" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="K25" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="L25" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="M25" s="122">
-        <v>0.97</v>
-      </c>
-      <c r="N25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="O25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="P25" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="Q25" s="122">
+      <c r="K25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="L25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="M25" s="59">
+        <v>0.97</v>
+      </c>
+      <c r="N25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="O25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="Q25" s="59">
         <v>0.96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="C26" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="D26" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="E26" s="122">
-        <v>0.96</v>
-      </c>
-      <c r="F26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="G26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="H26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="I26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="J26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="K26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="L26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="M26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="N26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="O26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="P26" s="122">
-        <v>0.95</v>
-      </c>
-      <c r="Q26" s="122">
+      <c r="B26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.96</v>
+      </c>
+      <c r="F26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="K26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="L26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="M26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="N26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="O26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="P26" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="59">
         <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
       <c r="K30" s="56"/>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -9224,18 +9082,18 @@
       <c r="Q30" s="56"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -9245,101 +9103,101 @@
       <c r="Q31" s="56"/>
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="59" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="116"/>
-      <c r="B33" s="130" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="130" t="s">
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="130" t="s">
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="130" t="s">
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="132"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="149"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="116"/>
-      <c r="B34" s="128" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="128" t="s">
+      <c r="F34" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="126" t="s">
+      <c r="G34" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="127" t="s">
+      <c r="I34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="128" t="s">
+      <c r="J34" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="126" t="s">
+      <c r="K34" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="126" t="s">
+      <c r="L34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="127" t="s">
+      <c r="M34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N34" s="125" t="s">
+      <c r="N34" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="O34" s="126" t="s">
+      <c r="O34" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="126" t="s">
+      <c r="P34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="127" t="s">
+      <c r="Q34" s="90" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9363,7 +9221,7 @@
         <f t="shared" si="0"/>
         <v>0.95599999999999996</v>
       </c>
-      <c r="F35" s="123">
+      <c r="F35" s="86">
         <f t="shared" si="0"/>
         <v>0.94666666666666643</v>
       </c>
@@ -9379,7 +9237,7 @@
         <f t="shared" si="0"/>
         <v>0.94733333333333314</v>
       </c>
-      <c r="J35" s="123">
+      <c r="J35" s="86">
         <f t="shared" si="0"/>
         <v>0.95466666666666655</v>
       </c>
@@ -9395,7 +9253,7 @@
         <f t="shared" si="0"/>
         <v>0.95533333333333326</v>
       </c>
-      <c r="N35" s="135">
+      <c r="N35" s="95">
         <f t="shared" si="0"/>
         <v>0.95733333333333348</v>
       </c>
@@ -9432,7 +9290,7 @@
         <f t="shared" si="1"/>
         <v>7.36788397613008E-3</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F36" s="93">
         <f t="shared" si="1"/>
         <v>6.1721339984836818E-3</v>
       </c>
@@ -9448,7 +9306,7 @@
         <f t="shared" si="1"/>
         <v>7.0373155054899751E-3</v>
       </c>
-      <c r="J36" s="124">
+      <c r="J36" s="87">
         <f t="shared" si="1"/>
         <v>7.1879528842826151E-3</v>
       </c>
@@ -9464,7 +9322,7 @@
         <f t="shared" si="1"/>
         <v>7.4322335295720719E-3</v>
       </c>
-      <c r="N36" s="134">
+      <c r="N36" s="94">
         <f t="shared" si="1"/>
         <v>5.9361683970466424E-3</v>
       </c>
@@ -9485,7 +9343,7 @@
       <c r="A37" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="114">
+      <c r="B37" s="85">
         <f>MIN(B4:B8,B13:B17,B22:B26)</f>
         <v>0.94</v>
       </c>
@@ -9501,51 +9359,51 @@
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="76">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="G37" s="106">
+      <c r="G37" s="77">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="H37" s="106">
+      <c r="H37" s="77">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="I37" s="107">
+      <c r="I37" s="78">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="76">
         <f t="shared" si="2"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="K37" s="106">
+      <c r="K37" s="77">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="L37" s="106">
+      <c r="L37" s="77">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="M37" s="107">
+      <c r="M37" s="78">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="N37" s="136">
+      <c r="N37" s="96">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="O37" s="106">
+      <c r="O37" s="77">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="P37" s="106">
+      <c r="P37" s="77">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="Q37" s="107">
+      <c r="Q37" s="78">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
@@ -9554,104 +9412,73 @@
       <c r="A38" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="111">
+      <c r="B38" s="82">
         <f>MAX(B4:B8,B13:B17,B22:B26)</f>
         <v>0.97</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="83">
         <f t="shared" ref="C38:Q38" si="3">MAX(C4:C8,C13:C17,C22:C26)</f>
         <v>0.97</v>
       </c>
-      <c r="D38" s="112">
+      <c r="D38" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="E38" s="112">
+      <c r="E38" s="83">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="F38" s="108">
+      <c r="F38" s="79">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="G38" s="109">
+      <c r="G38" s="80">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="H38" s="109">
+      <c r="H38" s="80">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="I38" s="110">
+      <c r="I38" s="81">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="J38" s="108">
+      <c r="J38" s="79">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="K38" s="109">
+      <c r="K38" s="80">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="L38" s="109">
+      <c r="L38" s="80">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="M38" s="110">
+      <c r="M38" s="81">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="N38" s="137">
+      <c r="N38" s="97">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="O38" s="109">
+      <c r="O38" s="80">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="P38" s="109">
+      <c r="P38" s="80">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="Q38" s="110">
+      <c r="Q38" s="81">
         <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
@@ -9662,6 +9489,18 @@
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9679,30 +9518,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -10067,12 +9906,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -10088,12 +9927,12 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -10109,12 +9948,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -10125,30 +9964,30 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="60" t="s">
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="60" t="s">
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -10221,7 +10060,7 @@
         <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="98">
         <f t="shared" si="0"/>
         <v>0.93553999999999993</v>
       </c>
@@ -10290,7 +10129,7 @@
         <f t="shared" si="1"/>
         <v>3.4641016151377581E-2</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="101">
         <f t="shared" si="1"/>
         <v>3.4645346007797688E-3</v>
       </c>
@@ -10359,7 +10198,7 @@
         <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
-      <c r="F17" s="138">
+      <c r="F17" s="98">
         <f t="shared" si="2"/>
         <v>0.93189999999999995</v>
       </c>
@@ -10428,7 +10267,7 @@
         <f t="shared" si="3"/>
         <v>0.92</v>
       </c>
-      <c r="F18" s="138">
+      <c r="F18" s="98">
         <f t="shared" si="3"/>
         <v>0.93940000000000001</v>
       </c>
@@ -10479,6 +10318,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:M13"/>
@@ -10486,10 +10329,6 @@
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10506,44 +10345,44 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="60" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="60" t="s">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="140"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -10974,16 +10813,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -11012,30 +10851,30 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="60" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="60" t="s">
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="60" t="s">
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="62"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="140"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -11466,16 +11305,16 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -11504,30 +11343,30 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="60" t="s">
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="60" t="s">
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="60" t="s">
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="62"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
@@ -11980,12 +11819,12 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -12001,12 +11840,12 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -12022,12 +11861,12 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -12038,30 +11877,30 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="60" t="s">
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="60" t="s">
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="60" t="s">
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="62"/>
+      <c r="O41" s="139"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="140"/>
     </row>
     <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
@@ -12118,67 +11957,67 @@
       <c r="A43" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="105">
+      <c r="B43" s="76">
         <f xml:space="preserve"> AVERAGE(B5:B9,B17:B21,B29:B33)</f>
         <v>0.86765999999999999</v>
       </c>
-      <c r="C43" s="106">
+      <c r="C43" s="77">
         <f xml:space="preserve"> AVERAGE(C5:C9,C17:C21,C29:C33)</f>
         <v>0.84933333333333338</v>
       </c>
-      <c r="D43" s="106">
+      <c r="D43" s="77">
         <f xml:space="preserve"> AVERAGE(D5:D9,D17:D21,D29:D33)</f>
         <v>0.8686666666666667</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="78">
         <f t="shared" ref="E43:Q43" si="3" xml:space="preserve"> AVERAGE(E5:E9,E17:E21,E29:E33)</f>
         <v>0.88266666666666671</v>
       </c>
-      <c r="F43" s="136">
+      <c r="F43" s="96">
         <f t="shared" si="3"/>
         <v>0.92354000000000014</v>
       </c>
-      <c r="G43" s="106">
+      <c r="G43" s="77">
         <f t="shared" si="3"/>
         <v>0.92466666666666653</v>
       </c>
-      <c r="H43" s="106">
+      <c r="H43" s="77">
         <f t="shared" si="3"/>
         <v>0.92466666666666653</v>
       </c>
-      <c r="I43" s="106">
+      <c r="I43" s="77">
         <f t="shared" si="3"/>
         <v>0.92466666666666653</v>
       </c>
-      <c r="J43" s="105">
+      <c r="J43" s="76">
         <f t="shared" si="3"/>
         <v>0.91741333333333352</v>
       </c>
-      <c r="K43" s="106">
+      <c r="K43" s="77">
         <f t="shared" si="3"/>
         <v>0.91533333333333322</v>
       </c>
-      <c r="L43" s="106">
+      <c r="L43" s="77">
         <f t="shared" si="3"/>
         <v>0.91733333333333322</v>
       </c>
-      <c r="M43" s="107">
+      <c r="M43" s="78">
         <f t="shared" si="3"/>
         <v>0.91799999999999993</v>
       </c>
-      <c r="N43" s="136">
+      <c r="N43" s="96">
         <f t="shared" si="3"/>
         <v>0.92088000000000003</v>
       </c>
-      <c r="O43" s="106">
+      <c r="O43" s="77">
         <f t="shared" si="3"/>
         <v>0.92066666666666663</v>
       </c>
-      <c r="P43" s="106">
+      <c r="P43" s="77">
         <f t="shared" si="3"/>
         <v>0.92199999999999993</v>
       </c>
-      <c r="Q43" s="107">
+      <c r="Q43" s="78">
         <f t="shared" si="3"/>
         <v>0.92133333333333323</v>
       </c>
@@ -12187,7 +12026,7 @@
       <c r="A44" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="124">
+      <c r="B44" s="87">
         <f>_xlfn.STDEV.S(B5:B9,B17:B21,B29:B33)</f>
         <v>2.7821697596351967E-2</v>
       </c>
@@ -12203,7 +12042,7 @@
         <f t="shared" si="4"/>
         <v>2.0165977949672252E-2</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="94">
         <f>_xlfn.STDEV.S(F5:F9,F17:F21,F29:F33)</f>
         <v>9.5745048361334361E-3</v>
       </c>
@@ -12219,7 +12058,7 @@
         <f>_xlfn.STDEV.S(I5:I9,I17:I21,I29:I33)</f>
         <v>9.9043040187202381E-3</v>
       </c>
-      <c r="J44" s="124">
+      <c r="J44" s="87">
         <f t="shared" si="4"/>
         <v>1.0545064293420925E-2</v>
       </c>
@@ -12256,7 +12095,7 @@
       <c r="A45" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="114">
+      <c r="B45" s="85">
         <f>MIN(B5:B9,B17:B21,B29:B33)</f>
         <v>0.81340000000000001</v>
       </c>
@@ -12272,7 +12111,7 @@
         <f t="shared" si="5"/>
         <v>0.84</v>
       </c>
-      <c r="F45" s="138">
+      <c r="F45" s="98">
         <f t="shared" si="5"/>
         <v>0.91039999999999999</v>
       </c>
@@ -12288,7 +12127,7 @@
         <f t="shared" si="5"/>
         <v>0.91</v>
       </c>
-      <c r="J45" s="114">
+      <c r="J45" s="85">
         <f t="shared" si="5"/>
         <v>0.90300000000000002</v>
       </c>
@@ -12304,7 +12143,7 @@
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="N45" s="138">
+      <c r="N45" s="98">
         <f t="shared" si="5"/>
         <v>0.90549999999999997</v>
       </c>
@@ -12325,73 +12164,80 @@
       <c r="A46" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="111">
+      <c r="B46" s="82">
         <f>MAX(B5:B9,B17:B21,B29:B33)</f>
         <v>0.90800000000000003</v>
       </c>
-      <c r="C46" s="112">
+      <c r="C46" s="83">
         <f t="shared" ref="C46:Q46" si="6">MAX(C5:C9,C17:C21,C29:C33)</f>
         <v>0.9</v>
       </c>
-      <c r="D46" s="112">
+      <c r="D46" s="83">
         <f t="shared" si="6"/>
         <v>0.91</v>
       </c>
-      <c r="E46" s="113">
+      <c r="E46" s="84">
         <f t="shared" si="6"/>
         <v>0.91</v>
       </c>
-      <c r="F46" s="139">
+      <c r="F46" s="99">
         <f t="shared" si="6"/>
         <v>0.94779999999999998</v>
       </c>
-      <c r="G46" s="112">
+      <c r="G46" s="83">
         <f t="shared" si="6"/>
         <v>0.95</v>
       </c>
-      <c r="H46" s="112">
+      <c r="H46" s="83">
         <f t="shared" si="6"/>
         <v>0.95</v>
       </c>
-      <c r="I46" s="112">
+      <c r="I46" s="83">
         <f t="shared" si="6"/>
         <v>0.95</v>
       </c>
-      <c r="J46" s="111">
+      <c r="J46" s="82">
         <f t="shared" si="6"/>
         <v>0.93279999999999996</v>
       </c>
-      <c r="K46" s="112">
+      <c r="K46" s="83">
         <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
-      <c r="L46" s="112">
+      <c r="L46" s="83">
         <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
-      <c r="M46" s="113">
+      <c r="M46" s="84">
         <f t="shared" si="6"/>
         <v>0.94</v>
       </c>
-      <c r="N46" s="112">
+      <c r="N46" s="83">
         <f t="shared" si="6"/>
         <v>0.93530000000000002</v>
       </c>
-      <c r="O46" s="112">
+      <c r="O46" s="83">
         <f t="shared" si="6"/>
         <v>0.94</v>
       </c>
-      <c r="P46" s="112">
+      <c r="P46" s="83">
         <f t="shared" si="6"/>
         <v>0.94</v>
       </c>
-      <c r="Q46" s="113">
+      <c r="Q46" s="84">
         <f t="shared" si="6"/>
         <v>0.94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:M27"/>
@@ -12407,13 +12253,6 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="D25:K25"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
